--- a/marks.xlsx
+++ b/marks.xlsx
@@ -765,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,7 +782,7 @@
     <col min="17" max="17" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -802,7 +802,7 @@
       </c>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
